--- a/xlsx/美国东岸_intext.xlsx
+++ b/xlsx/美国东岸_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="121">
   <si>
     <t>美国东岸</t>
   </si>
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_美国东岸</t>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_美国东岸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1</t>
   </si>
   <si>
-    <t>東</t>
+    <t>东</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B2%B8</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E7%81%A3</t>
   </si>
   <si>
-    <t>墨西哥灣</t>
+    <t>墨西哥湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E5%9B%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>緬因州</t>
+    <t>缅因州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%BD%95%E5%B8%83%E5%A4%8F%E5%B7%9E</t>
@@ -89,19 +89,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E</t>
   </si>
   <si>
-    <t>紐約州</t>
+    <t>纽约州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%BE%A4%E8%A5%BF%E5%B7%9E</t>
   </si>
   <si>
-    <t>新澤西州</t>
+    <t>新泽西州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>賓夕法尼亞州</t>
+    <t>宾夕法尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%8B%89%E7%93%A6%E5%B7%9E</t>
@@ -113,55 +113,55 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E8%98%AD%E5%B7%9E</t>
   </si>
   <si>
-    <t>馬里蘭州</t>
+    <t>马里兰州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>維吉尼亞州</t>
+    <t>维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E</t>
   </si>
   <si>
-    <t>北卡羅萊納州</t>
+    <t>北卡罗莱纳州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E</t>
   </si>
   <si>
-    <t>南卡羅萊納州</t>
+    <t>南卡罗莱纳州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>喬治亞州</t>
+    <t>乔治亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BE%85%E9%87%8C%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>佛羅里達州</t>
+    <t>佛罗里达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93</t>
   </si>
   <si>
-    <t>波士頓</t>
+    <t>波士顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82</t>
   </si>
   <si>
-    <t>紐約市</t>
+    <t>纽约市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%9F%8E</t>
   </si>
   <si>
-    <t>費城</t>
+    <t>费城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
@@ -173,79 +173,79 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%89%B9%E8%98%AD%E5%A4%A7</t>
   </si>
   <si>
-    <t>亞特蘭大</t>
+    <t>亚特兰大</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E7%9A%84%E6%91%A9</t>
   </si>
   <si>
-    <t>巴爾的摩</t>
+    <t>巴尔的摩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%81%E9%98%BF%E5%AF%86</t>
   </si>
   <si>
-    <t>邁阿密</t>
+    <t>迈阿密</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD</t>
   </si>
   <si>
-    <t>美國州份</t>
+    <t>美国州份</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9D%B1%E5%8C%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國東北部</t>
+    <t>美国东北部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國南部</t>
+    <t>美国南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/95%E8%99%9F%E5%B7%9E%E9%9A%9B%E9%AB%98%E9%80%9F%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>95號州際高速公路</t>
+    <t>95号州际高速公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93-%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%9F%8E%E5%B8%82%E5%B8%B6</t>
   </si>
   <si>
-    <t>波士頓-華盛頓城市帶</t>
+    <t>波士顿-华盛顿城市带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8C%97%E8%B5%B0%E5%BB%8A</t>
   </si>
   <si>
-    <t>東北走廊</t>
+    <t>东北走廊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E4%B8%8A%E5%B7%9E</t>
   </si>
   <si>
-    <t>紐約上州</t>
+    <t>纽约上州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>美國中西部</t>
+    <t>美国中西部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E7%90%86</t>
   </si>
   <si>
-    <t>美國地理</t>
+    <t>美国地理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>美國地區</t>
+    <t>美国地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Middle_America</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B2%BF%E6%B5%B7%E5%B7%9E%E4%BB%BD</t>
   </si>
   <si>
-    <t>美國沿海州份</t>
+    <t>美国沿海州份</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%8D%97%E6%96%B9</t>
@@ -269,19 +269,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B7%B1%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國深南部</t>
+    <t>美国深南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9D%B1%E9%83%A8</t>
   </si>
   <si>
-    <t>美國東部</t>
+    <t>美国东部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A2%A8%E8%A5%BF%E5%93%A5%E7%81%A3%E6%B2%BF%E5%B2%B8%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>美國墨西哥灣沿岸地區</t>
+    <t>美国墨西哥湾沿岸地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
@@ -293,67 +293,67 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B1%B1%E5%8D%80</t>
   </si>
   <si>
-    <t>美國山區</t>
+    <t>美国山区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>新英格蘭</t>
+    <t>新英格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8C%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國北部</t>
+    <t>美国北部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西北部</t>
+    <t>美国西北部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%AA%E5%B9%B3%E6%B4%8B%E6%B2%BF%E5%B2%B8%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>美國太平洋沿岸地區</t>
+    <t>美国太平洋沿岸地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>美國南大西洋地區</t>
+    <t>美国南大西洋地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國中南部</t>
+    <t>美国中南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9D%B1%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國東南部</t>
+    <t>美国东南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西南部</t>
+    <t>美国西南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西部</t>
+    <t>美国西部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%B2%B8</t>
   </si>
   <si>
-    <t>美國西岸</t>
+    <t>美国西岸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E5%A4%A7%E6%B9%96%E5%9C%B0%E5%8C%BA</t>
@@ -369,9 +369,6 @@
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9C%B0%E7%90%86</t>
-  </si>
-  <si>
-    <t>美国地理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9D%B1%E5%B2%B8</t>
@@ -2520,7 +2517,7 @@
         <v>117</v>
       </c>
       <c r="F62" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="G62" t="n">
         <v>3</v>
@@ -2546,10 +2543,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>118</v>
+      </c>
+      <c r="F63" t="s">
         <v>119</v>
-      </c>
-      <c r="F63" t="s">
-        <v>120</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -2575,10 +2572,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F64" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
